--- a/about/Leadership 2022-23.xlsx
+++ b/about/Leadership 2022-23.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="407">
   <si>
     <t>Position</t>
   </si>
@@ -512,6 +512,54 @@
   </si>
   <si>
     <t>Jen.hale@okstate.edu</t>
+  </si>
+  <si>
+    <t>Ashley Batastini</t>
+  </si>
+  <si>
+    <t>Ashley.batastini@memphis.edu</t>
+  </si>
+  <si>
+    <t>Mariya Lederman</t>
+  </si>
+  <si>
+    <t>mariya0821@gmail.com</t>
+  </si>
+  <si>
+    <t>Cory Gerritsen</t>
+  </si>
+  <si>
+    <t>Cory.Gerritsen@camh.ca</t>
+  </si>
+  <si>
+    <t>Evan Lowder</t>
+  </si>
+  <si>
+    <t>elowder@gmu.edu</t>
+  </si>
+  <si>
+    <t>Jennifer Schriver</t>
+  </si>
+  <si>
+    <t>Jennifer.Schriver@indstate.edu</t>
+  </si>
+  <si>
+    <t>John Markey</t>
+  </si>
+  <si>
+    <t>jmarkey@markeypsych.com</t>
+  </si>
+  <si>
+    <t>Kristin Kolbinski</t>
+  </si>
+  <si>
+    <t>kristin.kolbinski@gmail.com</t>
+  </si>
+  <si>
+    <t>Tamara Kang</t>
+  </si>
+  <si>
+    <t>Tamara.kang@siu.edu</t>
   </si>
   <si>
     <t>Anthony Perillo</t>
@@ -1575,6 +1623,12 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="25.75"/>
+    <col customWidth="1" min="2" max="2" width="19.5"/>
+    <col customWidth="1" min="3" max="3" width="26.75"/>
+    <col customWidth="1" min="4" max="4" width="18.88"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -1883,10 +1937,10 @@
         <v>73</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>19</v>
@@ -1897,10 +1951,10 @@
         <v>76</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>30</v>
@@ -1911,10 +1965,10 @@
         <v>76</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>19</v>
@@ -1925,10 +1979,10 @@
         <v>76</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>19</v>
@@ -1971,10 +2025,10 @@
         <v>73</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3">
@@ -2002,7 +2056,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5">
@@ -2052,10 +2106,10 @@
         <v>76</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>8</v>
@@ -2093,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2">
@@ -2124,7 +2178,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4">
@@ -2141,7 +2195,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5">
@@ -2149,10 +2203,10 @@
         <v>76</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>54</v>
@@ -2166,7 +2220,7 @@
         <v>77</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>88</v>
@@ -2204,7 +2258,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2">
@@ -2212,10 +2266,10 @@
         <v>73</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>54</v>
@@ -2226,16 +2280,16 @@
         <v>76</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4">
@@ -2243,16 +2297,16 @@
         <v>76</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5">
@@ -2260,16 +2314,16 @@
         <v>76</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6">
@@ -2277,16 +2331,16 @@
         <v>76</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2326,10 +2380,10 @@
         <v>73</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>30</v>
@@ -2340,10 +2394,10 @@
         <v>76</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>30</v>
@@ -2354,10 +2408,10 @@
         <v>76</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
@@ -2368,10 +2422,10 @@
         <v>76</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>30</v>
@@ -2382,10 +2436,10 @@
         <v>76</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>30</v>
@@ -2396,10 +2450,10 @@
         <v>76</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>30</v>
@@ -2410,10 +2464,10 @@
         <v>76</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>27</v>
@@ -2498,10 +2552,10 @@
         <v>76</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>8</v>
@@ -2512,10 +2566,10 @@
         <v>76</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
@@ -2553,7 +2607,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2">
@@ -2561,10 +2615,10 @@
         <v>73</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>54</v>
@@ -2578,13 +2632,13 @@
         <v>102</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4">
@@ -2620,10 +2674,10 @@
         <v>76</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>30</v>
@@ -2648,10 +2702,10 @@
         <v>76</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>27</v>
@@ -2662,10 +2716,10 @@
         <v>76</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>27</v>
@@ -2676,10 +2730,10 @@
         <v>76</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>27</v>
@@ -2690,10 +2744,10 @@
         <v>76</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>27</v>
@@ -2704,10 +2758,10 @@
         <v>76</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>27</v>
@@ -2750,10 +2804,10 @@
         <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>27</v>
@@ -2764,10 +2818,10 @@
         <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>30</v>
@@ -2778,10 +2832,10 @@
         <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>54</v>
@@ -2792,10 +2846,10 @@
         <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>30</v>
@@ -2806,10 +2860,10 @@
         <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>27</v>
@@ -2820,10 +2874,10 @@
         <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>27</v>
@@ -2837,7 +2891,7 @@
         <v>122</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>27</v>
@@ -2848,10 +2902,10 @@
         <v>126</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
@@ -2929,7 +2983,7 @@
         <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5">
@@ -2937,7 +2991,7 @@
         <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>53</v>
@@ -2948,10 +3002,10 @@
         <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7">
@@ -2959,10 +3013,10 @@
         <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -3007,10 +3061,10 @@
         <v>73</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>54</v>
@@ -3021,10 +3075,10 @@
         <v>76</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>19</v>
@@ -3035,10 +3089,10 @@
         <v>76</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>19</v>
@@ -3049,10 +3103,10 @@
         <v>76</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>19</v>
@@ -3063,10 +3117,10 @@
         <v>76</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>19</v>
@@ -3077,10 +3131,10 @@
         <v>76</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>19</v>
@@ -3091,10 +3145,10 @@
         <v>76</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>19</v>
@@ -3105,10 +3159,10 @@
         <v>76</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>30</v>
@@ -3119,10 +3173,10 @@
         <v>76</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>30</v>
@@ -3133,10 +3187,10 @@
         <v>76</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>30</v>
@@ -3147,10 +3201,10 @@
         <v>76</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>30</v>
@@ -3161,10 +3215,10 @@
         <v>76</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>30</v>
@@ -3175,10 +3229,10 @@
         <v>76</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>30</v>
@@ -3189,10 +3243,10 @@
         <v>76</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>30</v>
@@ -3203,10 +3257,10 @@
         <v>76</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>30</v>
@@ -3217,10 +3271,10 @@
         <v>76</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>30</v>
@@ -3231,10 +3285,10 @@
         <v>76</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>30</v>
@@ -3245,10 +3299,10 @@
         <v>76</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>27</v>
@@ -3409,10 +3463,10 @@
         <v>73</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>30</v>
@@ -3423,10 +3477,10 @@
         <v>76</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>54</v>
@@ -3437,10 +3491,10 @@
         <v>76</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>19</v>
@@ -3454,7 +3508,7 @@
         <v>131</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>30</v>
@@ -3497,10 +3551,10 @@
         <v>73</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>54</v>
@@ -3511,10 +3565,10 @@
         <v>76</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>30</v>
@@ -3525,10 +3579,10 @@
         <v>76</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
@@ -3539,10 +3593,10 @@
         <v>76</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>27</v>
@@ -3550,13 +3604,13 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
@@ -3602,10 +3656,10 @@
         <v>73</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>27</v>
@@ -3613,13 +3667,13 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>54</v>
@@ -3630,13 +3684,13 @@
         <v>76</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5">
@@ -3647,7 +3701,7 @@
         <v>154</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>142</v>
@@ -3658,13 +3712,13 @@
         <v>126</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -3699,7 +3753,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2">
@@ -3707,10 +3761,10 @@
         <v>56</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>54</v>
@@ -3721,16 +3775,16 @@
         <v>56</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4">
@@ -3738,13 +3792,13 @@
         <v>76</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5">
@@ -3752,13 +3806,13 @@
         <v>76</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6">
@@ -3766,10 +3820,10 @@
         <v>76</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>27</v>
@@ -3780,10 +3834,10 @@
         <v>126</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>19</v>
@@ -3826,13 +3880,13 @@
         <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3">
@@ -3840,10 +3894,10 @@
         <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>19</v>
@@ -3854,10 +3908,10 @@
         <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>19</v>
@@ -3868,10 +3922,10 @@
         <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>30</v>
@@ -3915,13 +3969,13 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>19</v>
@@ -3929,13 +3983,13 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>30</v>
@@ -3943,13 +3997,13 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -4432,6 +4486,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="19.25"/>
+    <col customWidth="1" min="3" max="3" width="27.38"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -4711,27 +4769,27 @@
       <c r="A2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
+      <c r="B2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4739,67 +4797,88 @@
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
+      <c r="B4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
+      <c r="B5" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>54</v>
+      <c r="B6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="B7" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>27</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="C3"/>
-    <hyperlink r:id="rId2" ref="C4"/>
-    <hyperlink r:id="rId3" ref="C5"/>
-    <hyperlink r:id="rId4" ref="C6"/>
-    <hyperlink r:id="rId5" ref="C7"/>
-  </hyperlinks>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4835,10 +4914,10 @@
         <v>73</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>19</v>
@@ -4846,7 +4925,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>136</v>
@@ -4855,7 +4934,7 @@
         <v>137</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4">
@@ -4863,13 +4942,13 @@
         <v>76</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5">
@@ -4877,10 +4956,10 @@
         <v>76</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>54</v>
@@ -4891,10 +4970,10 @@
         <v>76</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>54</v>
@@ -4905,10 +4984,10 @@
         <v>76</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>19</v>
@@ -4919,10 +4998,10 @@
         <v>76</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>19</v>
@@ -4933,10 +5012,10 @@
         <v>76</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>30</v>
@@ -4947,10 +5026,10 @@
         <v>76</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>30</v>
@@ -4961,10 +5040,10 @@
         <v>76</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>30</v>
@@ -4975,10 +5054,10 @@
         <v>76</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>30</v>
@@ -4989,10 +5068,10 @@
         <v>76</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>30</v>
@@ -5003,10 +5082,10 @@
         <v>76</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>30</v>
@@ -5017,10 +5096,10 @@
         <v>76</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>27</v>
@@ -5031,10 +5110,10 @@
         <v>76</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>27</v>
@@ -5077,10 +5156,10 @@
         <v>73</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>30</v>
@@ -5091,13 +5170,13 @@
         <v>76</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4">
@@ -5105,10 +5184,10 @@
         <v>76</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>19</v>
@@ -5119,10 +5198,10 @@
         <v>76</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>27</v>
@@ -5133,10 +5212,10 @@
         <v>76</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>30</v>
@@ -5147,10 +5226,10 @@
         <v>76</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>30</v>
@@ -5175,10 +5254,10 @@
         <v>76</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>27</v>
@@ -5189,10 +5268,10 @@
         <v>76</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>27</v>
@@ -5203,10 +5282,10 @@
         <v>126</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>27</v>
